--- a/index.xlsx
+++ b/index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislav/Documents/GitHub/Other/algos/lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47115BC-A90B-6F43-BE82-0CF68F3E7588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2948FD62-2046-3648-BCCF-F690651A6412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{3A8FBFEF-7B1F-8047-A9E9-1FCECC850FC5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{3A8FBFEF-7B1F-8047-A9E9-1FCECC850FC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,7 +661,7 @@
         <v>79.139351108782478</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L14" si="1">(K6-F6)^2/K6</f>
+        <f t="shared" ref="L6:L13" si="1">(K6-F6)^2/K6</f>
         <v>2.4537390371338213E-4</v>
       </c>
     </row>
